--- a/nif_reader_4/src/btpy/res/name_female_data.xlsx
+++ b/nif_reader_4/src/btpy/res/name_female_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15360" windowHeight="5867"/>
+    <workbookView windowWidth="15360" windowHeight="4680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="862">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="1005">
   <si>
     <t>russian</t>
   </si>
@@ -1664,6 +1664,9 @@
     <t>Alba</t>
   </si>
   <si>
+    <t>Rosalia</t>
+  </si>
+  <si>
     <t>Nuria</t>
   </si>
   <si>
@@ -1760,6 +1763,12 @@
     <t>Adriana</t>
   </si>
   <si>
+    <t>Letizia</t>
+  </si>
+  <si>
+    <t>Trinidad</t>
+  </si>
+  <si>
     <t>turkish</t>
   </si>
   <si>
@@ -2243,6 +2252,168 @@
     <t>Sei</t>
   </si>
   <si>
+    <t>Yayoi</t>
+  </si>
+  <si>
+    <t>Hibari</t>
+  </si>
+  <si>
+    <t>Rumiko</t>
+  </si>
+  <si>
+    <t>Naomi</t>
+  </si>
+  <si>
+    <t>Nijiro</t>
+  </si>
+  <si>
+    <t>Ayame</t>
+  </si>
+  <si>
+    <t>Mariko</t>
+  </si>
+  <si>
+    <t>Shinobu</t>
+  </si>
+  <si>
+    <t>Kagaya</t>
+  </si>
+  <si>
+    <t>Mitsuri</t>
+  </si>
+  <si>
+    <t>Kenao</t>
+  </si>
+  <si>
+    <t>Nezuko</t>
+  </si>
+  <si>
+    <t>Kanae</t>
+  </si>
+  <si>
+    <t>Hinata</t>
+  </si>
+  <si>
+    <t>Ino</t>
+  </si>
+  <si>
+    <t>Yoshino</t>
+  </si>
+  <si>
+    <t>Tomoe</t>
+  </si>
+  <si>
+    <t>Izo</t>
+  </si>
+  <si>
+    <t>Yashitsune</t>
+  </si>
+  <si>
+    <t>Misa</t>
+  </si>
+  <si>
+    <t>Tohru</t>
+  </si>
+  <si>
+    <t>Nami</t>
+  </si>
+  <si>
+    <t>Shouko</t>
+  </si>
+  <si>
+    <t>Ritsu</t>
+  </si>
+  <si>
+    <t>Kirino</t>
+  </si>
+  <si>
+    <t>Tsumugi</t>
+  </si>
+  <si>
+    <t>Shizuka</t>
+  </si>
+  <si>
+    <t>Tsubaki</t>
+  </si>
+  <si>
+    <t>Sayaka</t>
+  </si>
+  <si>
+    <t>Kyoko</t>
+  </si>
+  <si>
+    <t>Katsura</t>
+  </si>
+  <si>
+    <t>Rina</t>
+  </si>
+  <si>
+    <t>Sekai</t>
+  </si>
+  <si>
+    <t>Kisa</t>
+  </si>
+  <si>
+    <t>Tomoyo</t>
+  </si>
+  <si>
+    <t>Konan</t>
+  </si>
+  <si>
+    <t>Rika</t>
+  </si>
+  <si>
+    <t>Jingu</t>
+  </si>
+  <si>
+    <t>Nakano</t>
+  </si>
+  <si>
+    <t>Yuka</t>
+  </si>
+  <si>
+    <t>Rila</t>
+  </si>
+  <si>
+    <t>Junko</t>
+  </si>
+  <si>
+    <t>Momoko</t>
+  </si>
+  <si>
+    <t>Karin</t>
+  </si>
+  <si>
+    <t>Sayo</t>
+  </si>
+  <si>
+    <t>Kozue</t>
+  </si>
+  <si>
+    <t>Misako</t>
+  </si>
+  <si>
+    <t>Asula</t>
+  </si>
+  <si>
+    <t>Fumika</t>
+  </si>
+  <si>
+    <t>Nozomi</t>
+  </si>
+  <si>
+    <t>Fujiko</t>
+  </si>
+  <si>
+    <t>Ayako</t>
+  </si>
+  <si>
+    <t>Haruka</t>
+  </si>
+  <si>
+    <t>Seika</t>
+  </si>
+  <si>
     <t>polinesian</t>
   </si>
   <si>
@@ -2613,6 +2784,264 @@
   </si>
   <si>
     <t>Jowita</t>
+  </si>
+  <si>
+    <t>hebrew</t>
+  </si>
+  <si>
+    <t>Vania</t>
+  </si>
+  <si>
+    <t>Vanna</t>
+  </si>
+  <si>
+    <t>Vica</t>
+  </si>
+  <si>
+    <t>Vered</t>
+  </si>
+  <si>
+    <t>Xara</t>
+  </si>
+  <si>
+    <t>Ester</t>
+  </si>
+  <si>
+    <t>Noemi</t>
+  </si>
+  <si>
+    <t>Rebeca</t>
+  </si>
+  <si>
+    <t>Rut</t>
+  </si>
+  <si>
+    <t>Fabiola</t>
+  </si>
+  <si>
+    <t>Debora</t>
+  </si>
+  <si>
+    <t>Rahab</t>
+  </si>
+  <si>
+    <t>Jael</t>
+  </si>
+  <si>
+    <t>Judit</t>
+  </si>
+  <si>
+    <t>Aliza</t>
+  </si>
+  <si>
+    <t>Anat</t>
+  </si>
+  <si>
+    <t>Ariela</t>
+  </si>
+  <si>
+    <t>Atara</t>
+  </si>
+  <si>
+    <t>Avigail</t>
+  </si>
+  <si>
+    <t>Avishag</t>
+  </si>
+  <si>
+    <t>Ayala</t>
+  </si>
+  <si>
+    <t>Ayelet</t>
+  </si>
+  <si>
+    <t>Bat Sheva</t>
+  </si>
+  <si>
+    <t>Bat Tzion</t>
+  </si>
+  <si>
+    <t>Bina</t>
+  </si>
+  <si>
+    <t>Braja</t>
+  </si>
+  <si>
+    <t>Bruria</t>
+  </si>
+  <si>
+    <t>Efrat</t>
+  </si>
+  <si>
+    <t>Eliana</t>
+  </si>
+  <si>
+    <t>Faige</t>
+  </si>
+  <si>
+    <t>Freida</t>
+  </si>
+  <si>
+    <t>Geula</t>
+  </si>
+  <si>
+    <t>Gila</t>
+  </si>
+  <si>
+    <t>Hadasa</t>
+  </si>
+  <si>
+    <t>Hinda</t>
+  </si>
+  <si>
+    <t>Irit</t>
+  </si>
+  <si>
+    <t>Jagit</t>
+  </si>
+  <si>
+    <t>Jaia</t>
+  </si>
+  <si>
+    <t>Keren</t>
+  </si>
+  <si>
+    <t>Kineret</t>
+  </si>
+  <si>
+    <t>Liba</t>
+  </si>
+  <si>
+    <t>Lila</t>
+  </si>
+  <si>
+    <t>Majla</t>
+  </si>
+  <si>
+    <t>Malka</t>
+  </si>
+  <si>
+    <t>Meirav</t>
+  </si>
+  <si>
+    <t>Naama</t>
+  </si>
+  <si>
+    <t>Nava</t>
+  </si>
+  <si>
+    <t>Nejama</t>
+  </si>
+  <si>
+    <t>Netania</t>
+  </si>
+  <si>
+    <t>Orli</t>
+  </si>
+  <si>
+    <t>Orna</t>
+  </si>
+  <si>
+    <t>Osnat</t>
+  </si>
+  <si>
+    <t>Rajel</t>
+  </si>
+  <si>
+    <t>Sarai</t>
+  </si>
+  <si>
+    <t>Seraj</t>
+  </si>
+  <si>
+    <t>Sharon</t>
+  </si>
+  <si>
+    <t>Shaina</t>
+  </si>
+  <si>
+    <t>Shulamit</t>
+  </si>
+  <si>
+    <t>Simja</t>
+  </si>
+  <si>
+    <t>Tal</t>
+  </si>
+  <si>
+    <t>Tejiya</t>
+  </si>
+  <si>
+    <t>Tehila</t>
+  </si>
+  <si>
+    <t>Tziona</t>
+  </si>
+  <si>
+    <t>Tzivia</t>
+  </si>
+  <si>
+    <t>Yael</t>
+  </si>
+  <si>
+    <t>Yafa</t>
+  </si>
+  <si>
+    <t>Yehudit</t>
+  </si>
+  <si>
+    <t>Yiska</t>
+  </si>
+  <si>
+    <t>Zissel</t>
+  </si>
+  <si>
+    <t>Zahava</t>
+  </si>
+  <si>
+    <t>Jacobed</t>
+  </si>
+  <si>
+    <t>Agar</t>
+  </si>
+  <si>
+    <t>Asenat</t>
+  </si>
+  <si>
+    <t>Atalia</t>
+  </si>
+  <si>
+    <t>Abias</t>
+  </si>
+  <si>
+    <t>Abisag</t>
+  </si>
+  <si>
+    <t>Betsabe</t>
+  </si>
+  <si>
+    <t>Bilha</t>
+  </si>
+  <si>
+    <t>Dalila</t>
+  </si>
+  <si>
+    <t>Eliseba</t>
+  </si>
+  <si>
+    <t>Iscah</t>
+  </si>
+  <si>
+    <t>Jehosheba</t>
+  </si>
+  <si>
+    <t>Jezabel</t>
+  </si>
+  <si>
+    <t>Vasti</t>
+  </si>
+  <si>
+    <t>Salome</t>
   </si>
 </sst>
 </file>
@@ -3280,6 +3709,15 @@
     <cellStyle name="40% - Énfasis6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Énfasis6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3547,15 +3985,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:DQ16"/>
+  <dimension ref="A2:ES17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CX4" workbookViewId="0">
-      <selection activeCell="DK17" sqref="DK17"/>
+    <sheetView tabSelected="1" topLeftCell="EP10" workbookViewId="0">
+      <selection activeCell="ET13" sqref="ET13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="24.3333333333333" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="23.3333333333333" customWidth="1"/>
+    <col min="1" max="16384" width="24.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:31">
@@ -5233,7 +5671,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="10" spans="1:104">
+    <row r="10" spans="1:106">
       <c r="A10" t="s">
         <v>497</v>
       </c>
@@ -5421,55 +5859,55 @@
         <v>544</v>
       </c>
       <c r="BK10" t="s">
-        <v>512</v>
+        <v>545</v>
       </c>
       <c r="BL10" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="BM10" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="BN10" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="BO10" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="BP10" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="BQ10" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="BR10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="BS10" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="BT10" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="BU10" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="BV10" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="BW10" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="BX10" t="s">
         <v>163</v>
       </c>
       <c r="BY10" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="BZ10" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="CA10" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="CB10" t="s">
         <v>23</v>
@@ -5478,7 +5916,7 @@
         <v>1</v>
       </c>
       <c r="CD10" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="CE10" t="s">
         <v>23</v>
@@ -5487,19 +5925,19 @@
         <v>138</v>
       </c>
       <c r="CG10" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="CH10" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="CI10" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="CJ10" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="CK10" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="CL10" t="s">
         <v>360</v>
@@ -5511,620 +5949,836 @@
         <v>282</v>
       </c>
       <c r="CO10" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="CP10" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="CQ10" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="CR10" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="CS10" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="CT10" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="CU10" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="CV10" t="s">
         <v>28</v>
       </c>
       <c r="CW10" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="CX10" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="CY10" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="CZ10" t="s">
-        <v>576</v>
+        <v>577</v>
+      </c>
+      <c r="DA10" t="s">
+        <v>578</v>
+      </c>
+      <c r="DB10" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="11" spans="1:28">
       <c r="A11" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="B11" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="C11" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="D11" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="E11" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="F11" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="G11" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="H11" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="I11" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="J11" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="K11" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="L11" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="M11" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="N11" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="O11" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="P11" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="Q11" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="R11" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="S11" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="T11" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="U11" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="V11" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="W11" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="X11" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="Y11" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="Z11" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="AA11" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="AB11" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="12" spans="1:64">
       <c r="A12" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="B12" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="C12" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="D12" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="E12" t="s">
+        <v>612</v>
+      </c>
+      <c r="F12" t="s">
+        <v>613</v>
+      </c>
+      <c r="G12" t="s">
+        <v>614</v>
+      </c>
+      <c r="H12" t="s">
+        <v>615</v>
+      </c>
+      <c r="I12" t="s">
+        <v>616</v>
+      </c>
+      <c r="J12" t="s">
+        <v>617</v>
+      </c>
+      <c r="K12" t="s">
+        <v>618</v>
+      </c>
+      <c r="L12" t="s">
+        <v>619</v>
+      </c>
+      <c r="M12" t="s">
+        <v>620</v>
+      </c>
+      <c r="N12" t="s">
+        <v>621</v>
+      </c>
+      <c r="O12" t="s">
+        <v>622</v>
+      </c>
+      <c r="P12" t="s">
+        <v>623</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>624</v>
+      </c>
+      <c r="R12" t="s">
+        <v>625</v>
+      </c>
+      <c r="S12" t="s">
+        <v>626</v>
+      </c>
+      <c r="T12" t="s">
+        <v>627</v>
+      </c>
+      <c r="U12" t="s">
+        <v>628</v>
+      </c>
+      <c r="V12" t="s">
+        <v>629</v>
+      </c>
+      <c r="W12" t="s">
+        <v>614</v>
+      </c>
+      <c r="X12" t="s">
+        <v>622</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>630</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>631</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>620</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>632</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>633</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>634</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>635</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>636</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>637</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>638</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>639</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>640</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>641</v>
+      </c>
+      <c r="AL12" t="s">
         <v>609</v>
       </c>
-      <c r="F12" t="s">
-        <v>610</v>
-      </c>
-      <c r="G12" t="s">
-        <v>611</v>
-      </c>
-      <c r="H12" t="s">
-        <v>612</v>
-      </c>
-      <c r="I12" t="s">
-        <v>613</v>
-      </c>
-      <c r="J12" t="s">
-        <v>614</v>
-      </c>
-      <c r="K12" t="s">
-        <v>615</v>
-      </c>
-      <c r="L12" t="s">
-        <v>616</v>
-      </c>
-      <c r="M12" t="s">
-        <v>617</v>
-      </c>
-      <c r="N12" t="s">
-        <v>618</v>
-      </c>
-      <c r="O12" t="s">
-        <v>619</v>
-      </c>
-      <c r="P12" t="s">
-        <v>620</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>621</v>
-      </c>
-      <c r="R12" t="s">
-        <v>622</v>
-      </c>
-      <c r="S12" t="s">
+      <c r="AM12" t="s">
+        <v>625</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>642</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>643</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>644</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>645</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>646</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>647</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>648</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>649</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>650</v>
+      </c>
+      <c r="AW12" t="s">
         <v>623</v>
       </c>
-      <c r="T12" t="s">
-        <v>624</v>
-      </c>
-      <c r="U12" t="s">
-        <v>625</v>
-      </c>
-      <c r="V12" t="s">
-        <v>626</v>
-      </c>
-      <c r="W12" t="s">
-        <v>611</v>
-      </c>
-      <c r="X12" t="s">
-        <v>619</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>627</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>628</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>617</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>629</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>630</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>631</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>632</v>
-      </c>
-      <c r="AF12" t="s">
+      <c r="AX12" t="s">
+        <v>651</v>
+      </c>
+      <c r="AY12" t="s">
+        <v>652</v>
+      </c>
+      <c r="AZ12" t="s">
+        <v>653</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>654</v>
+      </c>
+      <c r="BB12" t="s">
+        <v>655</v>
+      </c>
+      <c r="BC12" t="s">
+        <v>656</v>
+      </c>
+      <c r="BD12" t="s">
+        <v>657</v>
+      </c>
+      <c r="BE12" t="s">
+        <v>658</v>
+      </c>
+      <c r="BF12" t="s">
+        <v>659</v>
+      </c>
+      <c r="BG12" t="s">
+        <v>660</v>
+      </c>
+      <c r="BH12" t="s">
+        <v>661</v>
+      </c>
+      <c r="BI12" t="s">
+        <v>662</v>
+      </c>
+      <c r="BJ12" t="s">
+        <v>663</v>
+      </c>
+      <c r="BK12" t="s">
+        <v>664</v>
+      </c>
+      <c r="BL12" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="13" spans="1:149">
+      <c r="A13" t="s">
+        <v>666</v>
+      </c>
+      <c r="B13" t="s">
+        <v>653</v>
+      </c>
+      <c r="C13" t="s">
+        <v>667</v>
+      </c>
+      <c r="D13" t="s">
+        <v>668</v>
+      </c>
+      <c r="E13" t="s">
+        <v>669</v>
+      </c>
+      <c r="F13" t="s">
+        <v>670</v>
+      </c>
+      <c r="G13" t="s">
+        <v>671</v>
+      </c>
+      <c r="H13" t="s">
+        <v>672</v>
+      </c>
+      <c r="I13" t="s">
+        <v>673</v>
+      </c>
+      <c r="J13" t="s">
+        <v>674</v>
+      </c>
+      <c r="K13" t="s">
+        <v>675</v>
+      </c>
+      <c r="L13" t="s">
+        <v>676</v>
+      </c>
+      <c r="M13" t="s">
+        <v>677</v>
+      </c>
+      <c r="N13" t="s">
+        <v>678</v>
+      </c>
+      <c r="O13" t="s">
+        <v>679</v>
+      </c>
+      <c r="P13" t="s">
+        <v>680</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>681</v>
+      </c>
+      <c r="R13" t="s">
+        <v>682</v>
+      </c>
+      <c r="S13" t="s">
+        <v>683</v>
+      </c>
+      <c r="T13" t="s">
+        <v>684</v>
+      </c>
+      <c r="U13" t="s">
+        <v>685</v>
+      </c>
+      <c r="V13" t="s">
+        <v>686</v>
+      </c>
+      <c r="W13" t="s">
+        <v>687</v>
+      </c>
+      <c r="X13" t="s">
+        <v>688</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>689</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>690</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>691</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>692</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>693</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>694</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>695</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>696</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>697</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>698</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>699</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>700</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>701</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>702</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>703</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>704</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>705</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>706</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>707</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>708</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>709</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>710</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>711</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>712</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>713</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>714</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>715</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>716</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>717</v>
+      </c>
+      <c r="BB13" t="s">
+        <v>718</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>719</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>720</v>
+      </c>
+      <c r="BE13" t="s">
+        <v>721</v>
+      </c>
+      <c r="BF13" t="s">
+        <v>702</v>
+      </c>
+      <c r="BG13" t="s">
+        <v>722</v>
+      </c>
+      <c r="BH13" t="s">
+        <v>691</v>
+      </c>
+      <c r="BI13" t="s">
+        <v>723</v>
+      </c>
+      <c r="BJ13" t="s">
+        <v>724</v>
+      </c>
+      <c r="BK13" t="s">
+        <v>725</v>
+      </c>
+      <c r="BL13" t="s">
+        <v>726</v>
+      </c>
+      <c r="BM13" t="s">
+        <v>727</v>
+      </c>
+      <c r="BN13" t="s">
+        <v>728</v>
+      </c>
+      <c r="BO13" t="s">
+        <v>729</v>
+      </c>
+      <c r="BP13" t="s">
+        <v>730</v>
+      </c>
+      <c r="BQ13" t="s">
+        <v>708</v>
+      </c>
+      <c r="BR13" t="s">
+        <v>731</v>
+      </c>
+      <c r="BS13" t="s">
+        <v>732</v>
+      </c>
+      <c r="BT13" t="s">
+        <v>733</v>
+      </c>
+      <c r="BU13" t="s">
+        <v>734</v>
+      </c>
+      <c r="BV13" t="s">
+        <v>735</v>
+      </c>
+      <c r="BW13" t="s">
+        <v>736</v>
+      </c>
+      <c r="BX13" t="s">
+        <v>737</v>
+      </c>
+      <c r="BY13" t="s">
+        <v>738</v>
+      </c>
+      <c r="BZ13" t="s">
+        <v>739</v>
+      </c>
+      <c r="CA13" t="s">
+        <v>740</v>
+      </c>
+      <c r="CB13" t="s">
         <v>633</v>
       </c>
-      <c r="AG12" t="s">
-        <v>634</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>635</v>
-      </c>
-      <c r="AI12" t="s">
-        <v>636</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>637</v>
-      </c>
-      <c r="AK12" t="s">
-        <v>638</v>
-      </c>
-      <c r="AL12" t="s">
-        <v>606</v>
-      </c>
-      <c r="AM12" t="s">
-        <v>622</v>
-      </c>
-      <c r="AN12" t="s">
-        <v>639</v>
-      </c>
-      <c r="AO12" t="s">
-        <v>640</v>
-      </c>
-      <c r="AP12" t="s">
-        <v>641</v>
-      </c>
-      <c r="AQ12" t="s">
-        <v>642</v>
-      </c>
-      <c r="AR12" t="s">
-        <v>643</v>
-      </c>
-      <c r="AS12" t="s">
-        <v>644</v>
-      </c>
-      <c r="AT12" t="s">
-        <v>645</v>
-      </c>
-      <c r="AU12" t="s">
-        <v>646</v>
-      </c>
-      <c r="AV12" t="s">
-        <v>647</v>
-      </c>
-      <c r="AW12" t="s">
-        <v>620</v>
-      </c>
-      <c r="AX12" t="s">
-        <v>648</v>
-      </c>
-      <c r="AY12" t="s">
-        <v>649</v>
-      </c>
-      <c r="AZ12" t="s">
-        <v>650</v>
-      </c>
-      <c r="BA12" t="s">
-        <v>651</v>
-      </c>
-      <c r="BB12" t="s">
-        <v>652</v>
-      </c>
-      <c r="BC12" t="s">
-        <v>653</v>
-      </c>
-      <c r="BD12" t="s">
-        <v>654</v>
-      </c>
-      <c r="BE12" t="s">
-        <v>655</v>
-      </c>
-      <c r="BF12" t="s">
-        <v>656</v>
-      </c>
-      <c r="BG12" t="s">
-        <v>657</v>
-      </c>
-      <c r="BH12" t="s">
-        <v>658</v>
-      </c>
-      <c r="BI12" t="s">
-        <v>659</v>
-      </c>
-      <c r="BJ12" t="s">
-        <v>660</v>
-      </c>
-      <c r="BK12" t="s">
-        <v>661</v>
-      </c>
-      <c r="BL12" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="13" spans="1:79">
-      <c r="A13" t="s">
-        <v>663</v>
-      </c>
-      <c r="B13" t="s">
-        <v>650</v>
-      </c>
-      <c r="C13" t="s">
-        <v>664</v>
-      </c>
-      <c r="D13" t="s">
-        <v>665</v>
-      </c>
-      <c r="E13" t="s">
-        <v>666</v>
-      </c>
-      <c r="F13" t="s">
-        <v>667</v>
-      </c>
-      <c r="G13" t="s">
-        <v>668</v>
-      </c>
-      <c r="H13" t="s">
-        <v>669</v>
-      </c>
-      <c r="I13" t="s">
-        <v>670</v>
-      </c>
-      <c r="J13" t="s">
-        <v>671</v>
-      </c>
-      <c r="K13" t="s">
-        <v>672</v>
-      </c>
-      <c r="L13" t="s">
-        <v>673</v>
-      </c>
-      <c r="M13" t="s">
-        <v>674</v>
-      </c>
-      <c r="N13" t="s">
-        <v>675</v>
-      </c>
-      <c r="O13" t="s">
-        <v>676</v>
-      </c>
-      <c r="P13" t="s">
-        <v>677</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>678</v>
-      </c>
-      <c r="R13" t="s">
-        <v>679</v>
-      </c>
-      <c r="S13" t="s">
-        <v>680</v>
-      </c>
-      <c r="T13" t="s">
-        <v>681</v>
-      </c>
-      <c r="U13" t="s">
-        <v>682</v>
-      </c>
-      <c r="V13" t="s">
-        <v>683</v>
-      </c>
-      <c r="W13" t="s">
-        <v>684</v>
-      </c>
-      <c r="X13" t="s">
-        <v>685</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>686</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>687</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>688</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>689</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>690</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>691</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>692</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>693</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>694</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>695</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>696</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>697</v>
-      </c>
-      <c r="AK13" t="s">
-        <v>698</v>
-      </c>
-      <c r="AL13" t="s">
-        <v>699</v>
-      </c>
-      <c r="AM13" t="s">
+      <c r="CC13" t="s">
+        <v>741</v>
+      </c>
+      <c r="CD13" t="s">
+        <v>742</v>
+      </c>
+      <c r="CE13" t="s">
+        <v>743</v>
+      </c>
+      <c r="CF13" t="s">
+        <v>744</v>
+      </c>
+      <c r="CG13" t="s">
+        <v>745</v>
+      </c>
+      <c r="CH13" t="s">
+        <v>746</v>
+      </c>
+      <c r="CI13" t="s">
+        <v>747</v>
+      </c>
+      <c r="CJ13" t="s">
+        <v>703</v>
+      </c>
+      <c r="CK13" t="s">
+        <v>748</v>
+      </c>
+      <c r="CL13" t="s">
+        <v>749</v>
+      </c>
+      <c r="CM13" t="s">
+        <v>711</v>
+      </c>
+      <c r="CN13" t="s">
+        <v>750</v>
+      </c>
+      <c r="CO13" t="s">
+        <v>751</v>
+      </c>
+      <c r="CP13" t="s">
+        <v>752</v>
+      </c>
+      <c r="CQ13" t="s">
+        <v>753</v>
+      </c>
+      <c r="CR13" t="s">
+        <v>723</v>
+      </c>
+      <c r="CS13" t="s">
+        <v>754</v>
+      </c>
+      <c r="CT13" t="s">
+        <v>755</v>
+      </c>
+      <c r="CU13" t="s">
+        <v>756</v>
+      </c>
+      <c r="CV13" t="s">
+        <v>757</v>
+      </c>
+      <c r="CW13" t="s">
+        <v>758</v>
+      </c>
+      <c r="CX13" t="s">
+        <v>759</v>
+      </c>
+      <c r="CY13" t="s">
         <v>700</v>
       </c>
-      <c r="AN13" t="s">
-        <v>701</v>
-      </c>
-      <c r="AO13" t="s">
+      <c r="CZ13" t="s">
         <v>702</v>
       </c>
-      <c r="AP13" t="s">
+      <c r="DA13" t="s">
         <v>703</v>
       </c>
-      <c r="AQ13" t="s">
+      <c r="DB13" t="s">
+        <v>717</v>
+      </c>
+      <c r="DC13" t="s">
+        <v>760</v>
+      </c>
+      <c r="DD13" t="s">
+        <v>761</v>
+      </c>
+      <c r="DE13" t="s">
+        <v>762</v>
+      </c>
+      <c r="DF13" t="s">
+        <v>706</v>
+      </c>
+      <c r="DG13" t="s">
+        <v>705</v>
+      </c>
+      <c r="DH13" t="s">
+        <v>763</v>
+      </c>
+      <c r="DI13" t="s">
         <v>704</v>
       </c>
-      <c r="AR13" t="s">
-        <v>705</v>
-      </c>
-      <c r="AS13" t="s">
-        <v>706</v>
-      </c>
-      <c r="AT13" t="s">
-        <v>707</v>
-      </c>
-      <c r="AU13" t="s">
-        <v>708</v>
-      </c>
-      <c r="AV13" t="s">
-        <v>709</v>
-      </c>
-      <c r="AW13" t="s">
-        <v>710</v>
-      </c>
-      <c r="AX13" t="s">
-        <v>711</v>
-      </c>
-      <c r="AY13" t="s">
-        <v>712</v>
-      </c>
-      <c r="AZ13" t="s">
-        <v>713</v>
-      </c>
-      <c r="BA13" t="s">
-        <v>714</v>
-      </c>
-      <c r="BB13" t="s">
-        <v>715</v>
-      </c>
-      <c r="BC13" t="s">
-        <v>716</v>
-      </c>
-      <c r="BD13" t="s">
-        <v>717</v>
-      </c>
-      <c r="BE13" t="s">
-        <v>718</v>
-      </c>
-      <c r="BF13" t="s">
-        <v>699</v>
-      </c>
-      <c r="BG13" t="s">
-        <v>719</v>
-      </c>
-      <c r="BH13" t="s">
-        <v>688</v>
-      </c>
-      <c r="BI13" t="s">
+      <c r="DJ13" t="s">
+        <v>764</v>
+      </c>
+      <c r="DK13" t="s">
+        <v>765</v>
+      </c>
+      <c r="DL13" t="s">
+        <v>766</v>
+      </c>
+      <c r="DM13" t="s">
+        <v>767</v>
+      </c>
+      <c r="DN13" t="s">
+        <v>768</v>
+      </c>
+      <c r="DO13" t="s">
+        <v>769</v>
+      </c>
+      <c r="DP13" t="s">
+        <v>770</v>
+      </c>
+      <c r="DQ13" t="s">
+        <v>771</v>
+      </c>
+      <c r="DR13" t="s">
         <v>720</v>
       </c>
-      <c r="BJ13" t="s">
-        <v>721</v>
-      </c>
-      <c r="BK13" t="s">
-        <v>722</v>
-      </c>
-      <c r="BL13" t="s">
-        <v>723</v>
-      </c>
-      <c r="BM13" t="s">
-        <v>724</v>
-      </c>
-      <c r="BN13" t="s">
-        <v>725</v>
-      </c>
-      <c r="BO13" t="s">
-        <v>726</v>
-      </c>
-      <c r="BP13" t="s">
-        <v>727</v>
-      </c>
-      <c r="BQ13" t="s">
-        <v>705</v>
-      </c>
-      <c r="BR13" t="s">
-        <v>728</v>
-      </c>
-      <c r="BS13" t="s">
-        <v>729</v>
-      </c>
-      <c r="BT13" t="s">
-        <v>730</v>
-      </c>
-      <c r="BU13" t="s">
-        <v>731</v>
-      </c>
-      <c r="BV13" t="s">
-        <v>732</v>
-      </c>
-      <c r="BW13" t="s">
-        <v>733</v>
-      </c>
-      <c r="BX13" t="s">
-        <v>734</v>
-      </c>
-      <c r="BY13" t="s">
-        <v>735</v>
-      </c>
-      <c r="BZ13" t="s">
-        <v>736</v>
-      </c>
-      <c r="CA13" t="s">
-        <v>737</v>
+      <c r="DS13" t="s">
+        <v>772</v>
+      </c>
+      <c r="DT13" t="s">
+        <v>773</v>
+      </c>
+      <c r="DU13" t="s">
+        <v>774</v>
+      </c>
+      <c r="DV13" t="s">
+        <v>775</v>
+      </c>
+      <c r="DW13" t="s">
+        <v>776</v>
+      </c>
+      <c r="DX13" t="s">
+        <v>777</v>
+      </c>
+      <c r="DY13" t="s">
+        <v>778</v>
+      </c>
+      <c r="DZ13" t="s">
+        <v>757</v>
+      </c>
+      <c r="EA13" t="s">
+        <v>779</v>
+      </c>
+      <c r="EB13" t="s">
+        <v>772</v>
+      </c>
+      <c r="EC13" t="s">
+        <v>780</v>
+      </c>
+      <c r="ED13" t="s">
+        <v>781</v>
+      </c>
+      <c r="EE13" t="s">
+        <v>782</v>
+      </c>
+      <c r="EF13" t="s">
+        <v>783</v>
+      </c>
+      <c r="EG13" t="s">
+        <v>784</v>
+      </c>
+      <c r="EH13" t="s">
+        <v>785</v>
+      </c>
+      <c r="EI13" t="s">
+        <v>786</v>
+      </c>
+      <c r="EJ13" t="s">
+        <v>769</v>
+      </c>
+      <c r="EK13" t="s">
+        <v>787</v>
+      </c>
+      <c r="EL13" t="s">
+        <v>740</v>
+      </c>
+      <c r="EM13" t="s">
+        <v>788</v>
+      </c>
+      <c r="EN13" t="s">
+        <v>789</v>
+      </c>
+      <c r="EO13" t="s">
+        <v>790</v>
+      </c>
+      <c r="EP13" t="s">
+        <v>791</v>
+      </c>
+      <c r="EQ13" t="s">
+        <v>792</v>
+      </c>
+      <c r="ER13" t="s">
+        <v>793</v>
+      </c>
+      <c r="ES13" t="s">
+        <v>794</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" t="s">
-        <v>738</v>
+        <v>795</v>
       </c>
       <c r="B14" t="s">
-        <v>739</v>
+        <v>796</v>
       </c>
       <c r="C14" t="s">
-        <v>740</v>
+        <v>797</v>
       </c>
       <c r="D14" t="s">
-        <v>741</v>
+        <v>798</v>
       </c>
       <c r="E14" t="s">
-        <v>742</v>
+        <v>799</v>
       </c>
       <c r="F14" t="s">
-        <v>743</v>
+        <v>800</v>
       </c>
       <c r="G14" t="s">
-        <v>744</v>
+        <v>801</v>
       </c>
       <c r="H14" t="s">
-        <v>745</v>
+        <v>802</v>
       </c>
       <c r="I14" t="s">
-        <v>746</v>
+        <v>803</v>
       </c>
       <c r="J14" t="s">
-        <v>747</v>
+        <v>804</v>
       </c>
       <c r="K14" t="s">
-        <v>748</v>
+        <v>805</v>
       </c>
       <c r="L14" t="s">
-        <v>749</v>
+        <v>806</v>
       </c>
       <c r="M14" t="s">
-        <v>750</v>
+        <v>807</v>
       </c>
       <c r="N14" t="s">
-        <v>751</v>
+        <v>808</v>
       </c>
       <c r="O14" t="s">
-        <v>752</v>
+        <v>809</v>
       </c>
       <c r="P14" t="s">
-        <v>753</v>
+        <v>810</v>
       </c>
       <c r="Q14" t="s">
-        <v>754</v>
+        <v>811</v>
       </c>
       <c r="R14" t="s">
-        <v>755</v>
+        <v>812</v>
       </c>
     </row>
     <row r="15" spans="1:42">
       <c r="A15" t="s">
-        <v>756</v>
+        <v>813</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>
@@ -6136,129 +6790,129 @@
         <v>516</v>
       </c>
       <c r="E15" t="s">
-        <v>757</v>
+        <v>814</v>
       </c>
       <c r="F15" t="s">
         <v>368</v>
       </c>
       <c r="G15" t="s">
-        <v>758</v>
+        <v>815</v>
       </c>
       <c r="H15" t="s">
         <v>9</v>
       </c>
       <c r="I15" t="s">
-        <v>759</v>
+        <v>816</v>
       </c>
       <c r="J15" t="s">
         <v>110</v>
       </c>
       <c r="K15" t="s">
-        <v>760</v>
+        <v>817</v>
       </c>
       <c r="L15" t="s">
-        <v>761</v>
+        <v>818</v>
       </c>
       <c r="M15" t="s">
-        <v>762</v>
+        <v>819</v>
       </c>
       <c r="N15" t="s">
-        <v>763</v>
+        <v>820</v>
       </c>
       <c r="O15" t="s">
-        <v>764</v>
+        <v>821</v>
       </c>
       <c r="P15" t="s">
-        <v>765</v>
+        <v>822</v>
       </c>
       <c r="Q15" t="s">
-        <v>766</v>
+        <v>823</v>
       </c>
       <c r="R15" t="s">
         <v>57</v>
       </c>
       <c r="S15" t="s">
-        <v>767</v>
+        <v>824</v>
       </c>
       <c r="T15" t="s">
-        <v>768</v>
+        <v>825</v>
       </c>
       <c r="U15" t="s">
         <v>524</v>
       </c>
       <c r="V15" t="s">
-        <v>769</v>
+        <v>826</v>
       </c>
       <c r="W15" t="s">
-        <v>770</v>
+        <v>827</v>
       </c>
       <c r="X15" t="s">
-        <v>771</v>
+        <v>828</v>
       </c>
       <c r="Y15" t="s">
-        <v>772</v>
+        <v>829</v>
       </c>
       <c r="Z15" t="s">
-        <v>773</v>
+        <v>830</v>
       </c>
       <c r="AA15" t="s">
-        <v>774</v>
+        <v>831</v>
       </c>
       <c r="AB15" t="s">
         <v>507</v>
       </c>
       <c r="AC15" t="s">
-        <v>775</v>
+        <v>832</v>
       </c>
       <c r="AD15" t="s">
-        <v>776</v>
+        <v>833</v>
       </c>
       <c r="AE15" t="s">
-        <v>777</v>
+        <v>834</v>
       </c>
       <c r="AF15" t="s">
-        <v>778</v>
+        <v>835</v>
       </c>
       <c r="AG15" t="s">
-        <v>779</v>
+        <v>836</v>
       </c>
       <c r="AH15" t="s">
-        <v>780</v>
+        <v>837</v>
       </c>
       <c r="AI15" t="s">
-        <v>781</v>
+        <v>838</v>
       </c>
       <c r="AJ15" t="s">
-        <v>782</v>
+        <v>839</v>
       </c>
       <c r="AK15" t="s">
-        <v>783</v>
+        <v>840</v>
       </c>
       <c r="AL15" t="s">
-        <v>784</v>
+        <v>841</v>
       </c>
       <c r="AM15" t="s">
-        <v>785</v>
+        <v>842</v>
       </c>
       <c r="AN15" t="s">
-        <v>786</v>
+        <v>843</v>
       </c>
       <c r="AO15" t="s">
-        <v>787</v>
+        <v>844</v>
       </c>
       <c r="AP15" t="s">
-        <v>788</v>
+        <v>845</v>
       </c>
     </row>
     <row r="16" spans="1:115">
       <c r="A16" t="s">
-        <v>789</v>
+        <v>846</v>
       </c>
       <c r="B16" t="s">
         <v>210</v>
       </c>
       <c r="C16" t="s">
-        <v>790</v>
+        <v>847</v>
       </c>
       <c r="D16" t="s">
         <v>206</v>
@@ -6267,22 +6921,22 @@
         <v>199</v>
       </c>
       <c r="F16" t="s">
-        <v>744</v>
+        <v>801</v>
       </c>
       <c r="G16" t="s">
         <v>518</v>
       </c>
       <c r="H16" t="s">
-        <v>791</v>
+        <v>848</v>
       </c>
       <c r="I16" t="s">
         <v>500</v>
       </c>
       <c r="J16" t="s">
-        <v>792</v>
+        <v>849</v>
       </c>
       <c r="K16" t="s">
-        <v>793</v>
+        <v>850</v>
       </c>
       <c r="L16" t="s">
         <v>400</v>
@@ -6291,31 +6945,31 @@
         <v>282</v>
       </c>
       <c r="N16" t="s">
-        <v>794</v>
+        <v>851</v>
       </c>
       <c r="O16" t="s">
-        <v>795</v>
+        <v>852</v>
       </c>
       <c r="P16" t="s">
-        <v>796</v>
+        <v>853</v>
       </c>
       <c r="Q16" t="s">
-        <v>797</v>
+        <v>854</v>
       </c>
       <c r="R16" t="s">
         <v>1</v>
       </c>
       <c r="S16" t="s">
-        <v>798</v>
+        <v>855</v>
       </c>
       <c r="T16" t="s">
-        <v>799</v>
+        <v>856</v>
       </c>
       <c r="U16" t="s">
         <v>518</v>
       </c>
       <c r="V16" t="s">
-        <v>800</v>
+        <v>857</v>
       </c>
       <c r="W16" t="s">
         <v>230</v>
@@ -6324,19 +6978,19 @@
         <v>6</v>
       </c>
       <c r="Y16" t="s">
-        <v>793</v>
+        <v>850</v>
       </c>
       <c r="Z16" t="s">
-        <v>801</v>
+        <v>858</v>
       </c>
       <c r="AA16" t="s">
-        <v>802</v>
+        <v>859</v>
       </c>
       <c r="AB16" t="s">
-        <v>803</v>
+        <v>860</v>
       </c>
       <c r="AC16" t="s">
-        <v>804</v>
+        <v>861</v>
       </c>
       <c r="AD16" t="s">
         <v>280</v>
@@ -6345,124 +6999,124 @@
         <v>206</v>
       </c>
       <c r="AF16" t="s">
-        <v>805</v>
+        <v>862</v>
       </c>
       <c r="AG16" t="s">
-        <v>806</v>
+        <v>863</v>
       </c>
       <c r="AH16" t="s">
         <v>194</v>
       </c>
       <c r="AI16" t="s">
-        <v>793</v>
+        <v>850</v>
       </c>
       <c r="AJ16" t="s">
         <v>210</v>
       </c>
       <c r="AK16" t="s">
-        <v>807</v>
+        <v>864</v>
       </c>
       <c r="AL16" t="s">
-        <v>808</v>
+        <v>865</v>
       </c>
       <c r="AM16" t="s">
-        <v>809</v>
+        <v>866</v>
       </c>
       <c r="AN16" t="s">
-        <v>810</v>
+        <v>867</v>
       </c>
       <c r="AO16" t="s">
-        <v>811</v>
+        <v>868</v>
       </c>
       <c r="AP16" t="s">
-        <v>812</v>
+        <v>869</v>
       </c>
       <c r="AQ16" t="s">
-        <v>813</v>
+        <v>870</v>
       </c>
       <c r="AR16" t="s">
-        <v>814</v>
+        <v>871</v>
       </c>
       <c r="AS16" t="s">
-        <v>815</v>
+        <v>872</v>
       </c>
       <c r="AT16" t="s">
-        <v>816</v>
+        <v>873</v>
       </c>
       <c r="AU16" t="s">
         <v>500</v>
       </c>
       <c r="AV16" t="s">
-        <v>817</v>
+        <v>874</v>
       </c>
       <c r="AW16" t="s">
         <v>26</v>
       </c>
       <c r="AX16" t="s">
-        <v>818</v>
+        <v>875</v>
       </c>
       <c r="AY16" t="s">
-        <v>798</v>
+        <v>855</v>
       </c>
       <c r="AZ16" t="s">
-        <v>819</v>
+        <v>876</v>
       </c>
       <c r="BA16" t="s">
-        <v>820</v>
+        <v>877</v>
       </c>
       <c r="BB16" t="s">
-        <v>821</v>
+        <v>878</v>
       </c>
       <c r="BC16" t="s">
-        <v>822</v>
+        <v>879</v>
       </c>
       <c r="BD16" t="s">
         <v>504</v>
       </c>
       <c r="BE16" t="s">
-        <v>823</v>
+        <v>880</v>
       </c>
       <c r="BF16" t="s">
-        <v>824</v>
+        <v>881</v>
       </c>
       <c r="BG16" t="s">
-        <v>825</v>
+        <v>882</v>
       </c>
       <c r="BH16" t="s">
-        <v>826</v>
+        <v>883</v>
       </c>
       <c r="BI16" t="s">
-        <v>827</v>
+        <v>884</v>
       </c>
       <c r="BJ16" t="s">
-        <v>828</v>
+        <v>885</v>
       </c>
       <c r="BK16" t="s">
-        <v>829</v>
+        <v>886</v>
       </c>
       <c r="BL16" t="s">
-        <v>830</v>
+        <v>887</v>
       </c>
       <c r="BM16" t="s">
-        <v>831</v>
+        <v>888</v>
       </c>
       <c r="BN16" t="s">
         <v>11</v>
       </c>
       <c r="BO16" t="s">
-        <v>832</v>
+        <v>889</v>
       </c>
       <c r="BP16" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="BQ16" t="s">
-        <v>833</v>
+        <v>890</v>
       </c>
       <c r="BR16" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="BS16" t="s">
-        <v>834</v>
+        <v>891</v>
       </c>
       <c r="BT16" t="s">
         <v>533</v>
@@ -6471,31 +7125,31 @@
         <v>542</v>
       </c>
       <c r="BV16" t="s">
-        <v>835</v>
+        <v>892</v>
       </c>
       <c r="BW16" t="s">
-        <v>836</v>
+        <v>893</v>
       </c>
       <c r="BX16" t="s">
-        <v>837</v>
+        <v>894</v>
       </c>
       <c r="BY16" t="s">
-        <v>838</v>
+        <v>895</v>
       </c>
       <c r="BZ16" t="s">
-        <v>839</v>
+        <v>896</v>
       </c>
       <c r="CA16" t="s">
-        <v>840</v>
+        <v>897</v>
       </c>
       <c r="CB16" t="s">
-        <v>841</v>
+        <v>898</v>
       </c>
       <c r="CC16" t="s">
         <v>7</v>
       </c>
       <c r="CD16" t="s">
-        <v>842</v>
+        <v>899</v>
       </c>
       <c r="CE16" t="s">
         <v>504</v>
@@ -6504,73 +7158,73 @@
         <v>3</v>
       </c>
       <c r="CG16" t="s">
-        <v>843</v>
+        <v>900</v>
       </c>
       <c r="CH16" t="s">
         <v>20</v>
       </c>
       <c r="CI16" t="s">
-        <v>825</v>
+        <v>882</v>
       </c>
       <c r="CJ16" t="s">
-        <v>844</v>
+        <v>901</v>
       </c>
       <c r="CK16" t="s">
-        <v>845</v>
+        <v>902</v>
       </c>
       <c r="CL16" t="s">
-        <v>846</v>
+        <v>903</v>
       </c>
       <c r="CM16" t="s">
-        <v>847</v>
+        <v>904</v>
       </c>
       <c r="CN16" t="s">
-        <v>824</v>
+        <v>881</v>
       </c>
       <c r="CO16" t="s">
-        <v>839</v>
+        <v>896</v>
       </c>
       <c r="CP16" t="s">
-        <v>848</v>
+        <v>905</v>
       </c>
       <c r="CQ16" t="s">
         <v>533</v>
       </c>
       <c r="CR16" t="s">
-        <v>849</v>
+        <v>906</v>
       </c>
       <c r="CS16" t="s">
-        <v>850</v>
+        <v>907</v>
       </c>
       <c r="CT16" t="s">
-        <v>836</v>
+        <v>893</v>
       </c>
       <c r="CU16" t="s">
-        <v>851</v>
+        <v>908</v>
       </c>
       <c r="CV16" t="s">
-        <v>852</v>
+        <v>909</v>
       </c>
       <c r="CW16" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="CX16" t="s">
-        <v>853</v>
+        <v>910</v>
       </c>
       <c r="CY16" t="s">
-        <v>854</v>
+        <v>911</v>
       </c>
       <c r="CZ16" t="s">
-        <v>855</v>
+        <v>912</v>
       </c>
       <c r="DA16" t="s">
-        <v>856</v>
+        <v>913</v>
       </c>
       <c r="DB16" t="s">
-        <v>857</v>
+        <v>914</v>
       </c>
       <c r="DC16" t="s">
-        <v>858</v>
+        <v>915</v>
       </c>
       <c r="DD16" t="s">
         <v>26</v>
@@ -6579,25 +7233,339 @@
         <v>236</v>
       </c>
       <c r="DF16" t="s">
-        <v>859</v>
+        <v>916</v>
       </c>
       <c r="DG16" t="s">
         <v>57</v>
       </c>
       <c r="DH16" t="s">
-        <v>860</v>
+        <v>917</v>
       </c>
       <c r="DI16" t="s">
-        <v>861</v>
+        <v>918</v>
       </c>
       <c r="DJ16" t="s">
-        <v>858</v>
+        <v>915</v>
       </c>
       <c r="DK16" t="s">
         <v>57</v>
       </c>
     </row>
+    <row r="17" spans="1:102">
+      <c r="A17" t="s">
+        <v>919</v>
+      </c>
+      <c r="B17" t="s">
+        <v>920</v>
+      </c>
+      <c r="C17" t="s">
+        <v>921</v>
+      </c>
+      <c r="D17" t="s">
+        <v>922</v>
+      </c>
+      <c r="E17" t="s">
+        <v>923</v>
+      </c>
+      <c r="F17" t="s">
+        <v>924</v>
+      </c>
+      <c r="G17" t="s">
+        <v>925</v>
+      </c>
+      <c r="H17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" t="s">
+        <v>276</v>
+      </c>
+      <c r="J17" t="s">
+        <v>926</v>
+      </c>
+      <c r="K17" t="s">
+        <v>504</v>
+      </c>
+      <c r="L17" t="s">
+        <v>541</v>
+      </c>
+      <c r="M17" t="s">
+        <v>927</v>
+      </c>
+      <c r="N17" t="s">
+        <v>928</v>
+      </c>
+      <c r="O17" t="s">
+        <v>929</v>
+      </c>
+      <c r="P17" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>930</v>
+      </c>
+      <c r="R17" t="s">
+        <v>131</v>
+      </c>
+      <c r="S17" t="s">
+        <v>3</v>
+      </c>
+      <c r="T17" t="s">
+        <v>931</v>
+      </c>
+      <c r="U17" t="s">
+        <v>932</v>
+      </c>
+      <c r="V17" t="s">
+        <v>933</v>
+      </c>
+      <c r="W17" t="s">
+        <v>558</v>
+      </c>
+      <c r="X17" t="s">
+        <v>518</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>934</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>935</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>936</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>937</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>938</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>939</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>940</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>941</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>942</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>943</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>944</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>945</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>946</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>530</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>947</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>948</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>949</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>950</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>904</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>951</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>952</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>953</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>954</v>
+      </c>
+      <c r="AV17" t="s">
+        <v>955</v>
+      </c>
+      <c r="AW17" t="s">
+        <v>956</v>
+      </c>
+      <c r="AX17" t="s">
+        <v>957</v>
+      </c>
+      <c r="AY17" t="s">
+        <v>215</v>
+      </c>
+      <c r="AZ17" t="s">
+        <v>958</v>
+      </c>
+      <c r="BA17" t="s">
+        <v>959</v>
+      </c>
+      <c r="BB17" t="s">
+        <v>960</v>
+      </c>
+      <c r="BC17" t="s">
+        <v>961</v>
+      </c>
+      <c r="BD17" t="s">
+        <v>962</v>
+      </c>
+      <c r="BE17" t="s">
+        <v>963</v>
+      </c>
+      <c r="BF17" t="s">
+        <v>425</v>
+      </c>
+      <c r="BG17" t="s">
+        <v>964</v>
+      </c>
+      <c r="BH17" t="s">
+        <v>744</v>
+      </c>
+      <c r="BI17" t="s">
+        <v>965</v>
+      </c>
+      <c r="BJ17" t="s">
+        <v>966</v>
+      </c>
+      <c r="BK17" t="s">
+        <v>967</v>
+      </c>
+      <c r="BL17" t="s">
+        <v>968</v>
+      </c>
+      <c r="BM17" t="s">
+        <v>969</v>
+      </c>
+      <c r="BN17" t="s">
+        <v>970</v>
+      </c>
+      <c r="BO17" t="s">
+        <v>971</v>
+      </c>
+      <c r="BP17" t="s">
+        <v>972</v>
+      </c>
+      <c r="BQ17" t="s">
+        <v>772</v>
+      </c>
+      <c r="BR17" t="s">
+        <v>973</v>
+      </c>
+      <c r="BS17" t="s">
+        <v>974</v>
+      </c>
+      <c r="BT17" t="s">
+        <v>975</v>
+      </c>
+      <c r="BU17" t="s">
+        <v>976</v>
+      </c>
+      <c r="BV17" t="s">
+        <v>977</v>
+      </c>
+      <c r="BW17" t="s">
+        <v>978</v>
+      </c>
+      <c r="BX17" t="s">
+        <v>979</v>
+      </c>
+      <c r="BY17" t="s">
+        <v>980</v>
+      </c>
+      <c r="BZ17" t="s">
+        <v>981</v>
+      </c>
+      <c r="CA17" t="s">
+        <v>982</v>
+      </c>
+      <c r="CB17" t="s">
+        <v>983</v>
+      </c>
+      <c r="CC17" t="s">
+        <v>984</v>
+      </c>
+      <c r="CD17" t="s">
+        <v>985</v>
+      </c>
+      <c r="CE17" t="s">
+        <v>986</v>
+      </c>
+      <c r="CF17" t="s">
+        <v>987</v>
+      </c>
+      <c r="CG17" t="s">
+        <v>988</v>
+      </c>
+      <c r="CH17" t="s">
+        <v>989</v>
+      </c>
+      <c r="CI17" t="s">
+        <v>990</v>
+      </c>
+      <c r="CJ17" t="s">
+        <v>991</v>
+      </c>
+      <c r="CK17" t="s">
+        <v>992</v>
+      </c>
+      <c r="CL17" t="s">
+        <v>993</v>
+      </c>
+      <c r="CM17" t="s">
+        <v>994</v>
+      </c>
+      <c r="CN17" t="s">
+        <v>995</v>
+      </c>
+      <c r="CO17" t="s">
+        <v>996</v>
+      </c>
+      <c r="CP17" t="s">
+        <v>997</v>
+      </c>
+      <c r="CQ17" t="s">
+        <v>196</v>
+      </c>
+      <c r="CR17" t="s">
+        <v>998</v>
+      </c>
+      <c r="CS17" t="s">
+        <v>999</v>
+      </c>
+      <c r="CT17" t="s">
+        <v>1000</v>
+      </c>
+      <c r="CU17" t="s">
+        <v>1001</v>
+      </c>
+      <c r="CV17" t="s">
+        <v>1002</v>
+      </c>
+      <c r="CW17" t="s">
+        <v>1003</v>
+      </c>
+      <c r="CX17" t="s">
+        <v>1004</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="$A10:$XFD10">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="$A17:$XFD17">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
